--- a/StockPredictor/bin/Debug/Packages/Data/AAPL/AAPLRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/AAPL/AAPLRandom.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="WorkSheet 1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>totalScore</t>
+    <t>ScoreFinal</t>
+  </si>
+  <si>
+    <t>totalSentiment</t>
   </si>
   <si>
     <t>posWordPercentage</t>
@@ -66,6 +69,12 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>RSI</t>
+  </si>
+  <si>
+    <t>PEG</t>
   </si>
   <si>
     <t>Random</t>
@@ -387,28 +396,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,13 +460,22 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42614.524340277778</v>
+        <v>42627.87427083333</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -492,8 +510,70 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
-        <v>14</v>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42627.877280092594</v>
+      </c>
+      <c r="B3">
+        <v>-6</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/AAPL/AAPLRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/AAPL/AAPLRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Random</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
 </sst>
 </file>
@@ -113,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +421,7 @@
     <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42627.87427083333</v>
       </c>
@@ -523,7 +527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42627.877280092594</v>
       </c>
@@ -574,6 +578,290 @@
       </c>
       <c r="Q3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42628.834120370368</v>
+      </c>
+      <c r="B4">
+        <v>-16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1.66</v>
+      </c>
+      <c r="S4" s="2">
+        <v>9.69E-2</v>
+      </c>
+      <c r="T4">
+        <v>4.57</v>
+      </c>
+      <c r="U4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42628.837546296294</v>
+      </c>
+      <c r="B5">
+        <v>-17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1.66</v>
+      </c>
+      <c r="S5" s="2">
+        <v>9.69E-2</v>
+      </c>
+      <c r="T5">
+        <v>4.57</v>
+      </c>
+      <c r="U5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42628.838750000003</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1.66</v>
+      </c>
+      <c r="S6" s="2">
+        <v>9.69E-2</v>
+      </c>
+      <c r="T6">
+        <v>4.57</v>
+      </c>
+      <c r="U6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42628.840949074074</v>
+      </c>
+      <c r="B7">
+        <v>-10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1.66</v>
+      </c>
+      <c r="S7" s="2">
+        <v>9.69E-2</v>
+      </c>
+      <c r="T7">
+        <v>4.57</v>
+      </c>
+      <c r="U7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V7">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/AAPL/AAPLRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/AAPL/AAPLRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -32,9 +32,18 @@
     <t>ScoreFinal</t>
   </si>
   <si>
+    <t>Verdict</t>
+  </si>
+  <si>
     <t>totalSentiment</t>
   </si>
   <si>
+    <t>wordCount</t>
+  </si>
+  <si>
+    <t>sentenceCount</t>
+  </si>
+  <si>
     <t>posWordPercentage</t>
   </si>
   <si>
@@ -50,12 +59,6 @@
     <t>ElapsedMs</t>
   </si>
   <si>
-    <t>wordCount</t>
-  </si>
-  <si>
-    <t>sentenceCount</t>
-  </si>
-  <si>
     <t>posWordCount</t>
   </si>
   <si>
@@ -77,10 +80,25 @@
     <t>PEG</t>
   </si>
   <si>
+    <t>200Moving%</t>
+  </si>
+  <si>
+    <t>50Moving%</t>
+  </si>
+  <si>
+    <t>PriceBook</t>
+  </si>
+  <si>
+    <t>Dividend</t>
+  </si>
+  <si>
+    <t>Bollinger</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>Random</t>
-  </si>
-  <si>
-    <t>buy</t>
   </si>
 </sst>
 </file>
@@ -400,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,17 +426,17 @@
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -473,16 +491,34 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42627.87427083333</v>
+        <v>42628.850717592592</v>
       </c>
       <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>-12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -517,25 +553,43 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1.66</v>
+      </c>
+      <c r="S2" s="2">
+        <v>9.69E-2</v>
+      </c>
+      <c r="T2">
+        <v>4.57</v>
+      </c>
+      <c r="U2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42627.877280092594</v>
+        <v>42628.852731481478</v>
       </c>
       <c r="B3">
-        <v>-6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>-9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -570,25 +624,43 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1.66</v>
+      </c>
+      <c r="S3" s="2">
+        <v>9.69E-2</v>
+      </c>
+      <c r="T3">
+        <v>4.57</v>
+      </c>
+      <c r="U3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>42628.834120370368</v>
+        <v>42628.856805555559</v>
       </c>
       <c r="B4">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -627,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -653,13 +725,13 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>42628.837546296294</v>
+        <v>42628.858796296299</v>
       </c>
       <c r="B5">
-        <v>-17</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -698,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -719,148 +791,6 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="W5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42628.838750000003</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>1.66</v>
-      </c>
-      <c r="S6" s="2">
-        <v>9.69E-2</v>
-      </c>
-      <c r="T6">
-        <v>4.57</v>
-      </c>
-      <c r="U6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="V6">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>42628.840949074074</v>
-      </c>
-      <c r="B7">
-        <v>-10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1.66</v>
-      </c>
-      <c r="S7" s="2">
-        <v>9.69E-2</v>
-      </c>
-      <c r="T7">
-        <v>4.57</v>
-      </c>
-      <c r="U7">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="V7">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="W7">
         <v>0</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/AAPL/AAPLRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/AAPL/AAPLRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -95,10 +95,19 @@
     <t>Bollinger</t>
   </si>
   <si>
-    <t>Neutral</t>
+    <t>PriceChange</t>
+  </si>
+  <si>
+    <t>UpDown</t>
+  </si>
+  <si>
+    <t>Buy</t>
   </si>
   <si>
     <t>Random</t>
+  </si>
+  <si>
+    <t>Down</t>
   </si>
 </sst>
 </file>
@@ -418,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +435,7 @@
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -439,7 +448,7 @@
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,16 +518,22 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42629.656793981485</v>
+        <v>42633.878912037035</v>
       </c>
       <c r="B2">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -557,27 +572,104 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="S2" s="2">
-        <v>0.1331</v>
+        <v>0.111</v>
       </c>
       <c r="T2">
-        <v>8.01</v>
+        <v>5.45</v>
       </c>
       <c r="U2">
-        <v>4.76</v>
+        <v>4.84</v>
       </c>
       <c r="V2">
         <v>2.2799999999999998</v>
       </c>
       <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>-1.6100000000000136</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42633.880312499998</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1.76</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="T3">
+        <v>5.45</v>
+      </c>
+      <c r="U3">
+        <v>4.84</v>
+      </c>
+      <c r="V3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W3">
         <v>0</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/AAPL/AAPLRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/AAPL/AAPLRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Down</t>
+  </si>
+  <si>
+    <t>Neutral</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +438,7 @@
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -672,6 +675,83 @@
       <c r="W3">
         <v>0</v>
       </c>
+      <c r="X3">
+        <v>-0.29999499999999557</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42635.817361111112</v>
+      </c>
+      <c r="B4">
+        <v>-4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4">
+        <v>63.486785924529997</v>
+      </c>
+      <c r="R4">
+        <v>1.76</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.109</v>
+      </c>
+      <c r="T4" s="2">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="U4">
+        <v>4.84</v>
+      </c>
+      <c r="V4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/AAPL/AAPLRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/AAPL/AAPLRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Random</t>
+  </si>
+  <si>
+    <t>Down</t>
   </si>
 </sst>
 </file>
@@ -424,25 +427,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -590,6 +593,83 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>-5.9997999999993112E-2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42648.663935185185</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3">
+        <v>48.098617091043238</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="T3" s="2">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="U3">
+        <v>4.8</v>
+      </c>
+      <c r="V3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W3">
         <v>0</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/AAPL/AAPLRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/AAPL/AAPLRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,6 +672,160 @@
       <c r="W3">
         <v>0</v>
       </c>
+      <c r="X3">
+        <v>-0.34999899999999684</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42649.612187500003</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4">
+        <v>35.483823948801813</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="T4" s="2">
+        <v>2.69E-2</v>
+      </c>
+      <c r="U4">
+        <v>4.82</v>
+      </c>
+      <c r="V4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>-0.34999899999999684</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42649.635567129626</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5">
+        <v>35.483823948801813</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="T5" s="2">
+        <v>2.69E-2</v>
+      </c>
+      <c r="U5">
+        <v>4.82</v>
+      </c>
+      <c r="V5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
